--- a/prix/huot.xlsx
+++ b/prix/huot.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB3950-74FE-4723-A295-BEDDE202F711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D73A4F-3040-4084-A61F-8CC40DBAA761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
   <si>
     <t>43094942</t>
   </si>
@@ -249,6 +249,84 @@
   </si>
   <si>
     <t>acc-tube-polyethylene/huot/te.png</t>
+  </si>
+  <si>
+    <t>denomination</t>
+  </si>
+  <si>
+    <t>1/2N</t>
+  </si>
+  <si>
+    <t>3/4N</t>
+  </si>
+  <si>
+    <t>4/4N</t>
+  </si>
+  <si>
+    <t>1/2R</t>
+  </si>
+  <si>
+    <t>3/4R</t>
+  </si>
+  <si>
+    <t>4/4R</t>
+  </si>
+  <si>
+    <t>1/2 NM</t>
+  </si>
+  <si>
+    <t>3/4 NM</t>
+  </si>
+  <si>
+    <t>4/4 NM</t>
+  </si>
+  <si>
+    <t>1/2 NF</t>
+  </si>
+  <si>
+    <t>3/4 NF</t>
+  </si>
+  <si>
+    <t>4/4 NF</t>
+  </si>
+  <si>
+    <t>1/2 RM</t>
+  </si>
+  <si>
+    <t>3/4 RM</t>
+  </si>
+  <si>
+    <t>4/4 RM</t>
+  </si>
+  <si>
+    <t>1/2 RF</t>
+  </si>
+  <si>
+    <t>3/4 RF</t>
+  </si>
+  <si>
+    <t>4/4 RF</t>
+  </si>
+  <si>
+    <t>6/4 RF</t>
+  </si>
+  <si>
+    <t>1/2 N</t>
+  </si>
+  <si>
+    <t>3/4 N</t>
+  </si>
+  <si>
+    <t>4/4 N</t>
+  </si>
+  <si>
+    <t>1/2 R</t>
+  </si>
+  <si>
+    <t>3/4 R</t>
+  </si>
+  <si>
+    <t>4/4 R</t>
   </si>
 </sst>
 </file>
@@ -643,470 +721,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F5ACE-7E2D-40C0-88FD-739125C9D6BE}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="37.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="4"/>
-    <col min="6" max="6" width="11.77734375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="21.77734375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="4"/>
+    <col min="3" max="3" width="6.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" style="4"/>
+    <col min="7" max="7" width="11.77734375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="21.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="3">
         <v>32.090000000000003</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="3">
         <v>30.93</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="3">
         <v>33.86</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="3">
         <v>27.37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3">
         <v>30.52</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3">
         <v>39.07</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3">
         <v>13.8</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="3">
         <v>14.21</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3">
         <v>22.16</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="3">
         <v>14.02</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="3">
         <v>14.27</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="3">
         <v>20.97</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="3">
         <v>12.73</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="3">
         <v>13.88</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3">
         <v>24.55</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="3">
         <v>11.16</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3">
         <v>15.27</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="3">
         <v>24.36</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="3">
         <v>38.46</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3">
         <v>23.47</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="3">
         <v>25.88</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="3">
         <v>25.150000000000002</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="3">
         <v>20.21</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="3">
         <v>27.42</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="3">
         <v>40</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="3">
         <v>26.580000000000002</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="3">
         <v>24.92</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="3">
         <v>50.13</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="3">
         <v>33.58</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="3">
         <v>40.380000000000003</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" s="3">
         <v>50.13</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>60</v>
       </c>
     </row>

--- a/prix/huot.xlsx
+++ b/prix/huot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D73A4F-3040-4084-A61F-8CC40DBAA761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F1AD48-CDF7-4834-BE3C-F89B3D549CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{B3633BAD-FC45-4A24-8BD9-8C1E06DA75E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,6 +386,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,7 +727,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,8 +771,8 @@
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="3">
-        <v>32.090000000000003</v>
+      <c r="D2" s="6">
+        <v>38.83</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -785,8 +788,8 @@
       <c r="C3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="3">
-        <v>30.93</v>
+      <c r="D3" s="6">
+        <v>37.43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
@@ -802,8 +805,8 @@
       <c r="C4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="3">
-        <v>33.86</v>
+      <c r="D4" s="6">
+        <v>40.97</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>4</v>
@@ -819,8 +822,8 @@
       <c r="C5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="3">
-        <v>27.37</v>
+      <c r="D5" s="6">
+        <v>33.119999999999997</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>6</v>
@@ -836,8 +839,8 @@
       <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="3">
-        <v>30.52</v>
+      <c r="D6" s="6">
+        <v>36.93</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
@@ -853,8 +856,8 @@
       <c r="C7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="3">
-        <v>39.07</v>
+      <c r="D7" s="6">
+        <v>47.27</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -870,8 +873,8 @@
       <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="3">
-        <v>13.8</v>
+      <c r="D8" s="6">
+        <v>16.7</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>12</v>
@@ -887,8 +890,8 @@
       <c r="C9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="3">
-        <v>14.21</v>
+      <c r="D9" s="6">
+        <v>17.2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>14</v>
@@ -904,8 +907,8 @@
       <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="3">
-        <v>22.16</v>
+      <c r="D10" s="6">
+        <v>26.810000000000002</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
@@ -921,8 +924,8 @@
       <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="3">
-        <v>14.02</v>
+      <c r="D11" s="6">
+        <v>16.96</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -938,8 +941,8 @@
       <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="3">
-        <v>14.27</v>
+      <c r="D12" s="6">
+        <v>17.27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -955,8 +958,8 @@
       <c r="C13" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="3">
-        <v>20.97</v>
+      <c r="D13" s="6">
+        <v>25.37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>22</v>
@@ -972,8 +975,8 @@
       <c r="C14" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="3">
-        <v>12.73</v>
+      <c r="D14" s="6">
+        <v>15.4</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>24</v>
@@ -989,8 +992,8 @@
       <c r="C15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="3">
-        <v>13.88</v>
+      <c r="D15" s="6">
+        <v>16.8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>26</v>
@@ -1006,8 +1009,8 @@
       <c r="C16" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="3">
-        <v>24.55</v>
+      <c r="D16" s="6">
+        <v>29.7</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
@@ -1023,8 +1026,8 @@
       <c r="C17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="3">
-        <v>11.16</v>
+      <c r="D17" s="6">
+        <v>13.5</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>30</v>
@@ -1040,8 +1043,8 @@
       <c r="C18" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="3">
-        <v>15.27</v>
+      <c r="D18" s="6">
+        <v>18.48</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>32</v>
@@ -1057,8 +1060,8 @@
       <c r="C19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="3">
-        <v>24.36</v>
+      <c r="D19" s="6">
+        <v>29.48</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>34</v>
@@ -1074,8 +1077,8 @@
       <c r="C20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="3">
-        <v>38.46</v>
+      <c r="D20" s="6">
+        <v>46.54</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>36</v>
@@ -1091,8 +1094,8 @@
       <c r="C21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="3">
-        <v>23.47</v>
+      <c r="D21" s="6">
+        <v>28.400000000000002</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>38</v>
@@ -1108,8 +1111,8 @@
       <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="3">
-        <v>25.88</v>
+      <c r="D22" s="6">
+        <v>31.310000000000002</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
@@ -1125,8 +1128,8 @@
       <c r="C23" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="3">
-        <v>25.150000000000002</v>
+      <c r="D23" s="6">
+        <v>30.43</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>42</v>
@@ -1142,8 +1145,8 @@
       <c r="C24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="3">
-        <v>20.21</v>
+      <c r="D24" s="6">
+        <v>24.45</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
@@ -1159,8 +1162,8 @@
       <c r="C25" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="3">
-        <v>27.42</v>
+      <c r="D25" s="6">
+        <v>33.18</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>46</v>
@@ -1176,8 +1179,8 @@
       <c r="C26" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="3">
-        <v>40</v>
+      <c r="D26" s="6">
+        <v>48.4</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>48</v>
@@ -1193,8 +1196,8 @@
       <c r="C27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="3">
-        <v>26.580000000000002</v>
+      <c r="D27" s="6">
+        <v>32.160000000000004</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>50</v>
@@ -1210,8 +1213,8 @@
       <c r="C28" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="3">
-        <v>24.92</v>
+      <c r="D28" s="6">
+        <v>30.150000000000002</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>52</v>
@@ -1227,8 +1230,8 @@
       <c r="C29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="3">
-        <v>50.13</v>
+      <c r="D29" s="6">
+        <v>60.660000000000004</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>54</v>
@@ -1244,8 +1247,8 @@
       <c r="C30" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="3">
-        <v>33.58</v>
+      <c r="D30" s="6">
+        <v>40.630000000000003</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>56</v>
@@ -1261,8 +1264,8 @@
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="3">
-        <v>40.380000000000003</v>
+      <c r="D31" s="6">
+        <v>48.86</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>58</v>
@@ -1278,8 +1281,8 @@
       <c r="C32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="3">
-        <v>50.13</v>
+      <c r="D32" s="6">
+        <v>60.660000000000004</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>60</v>
